--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>val_accuracy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,160 +357,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>0.6788635849952698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.45998415350914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>0.2305650562047958</v>
+      </c>
+      <c r="B2">
+        <v>0.208114817738533</v>
+      </c>
+      <c r="C2">
+        <v>0.09717520326375961</v>
+      </c>
+      <c r="D2">
+        <v>0.0795891210436821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.1901708394289017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>0.09318055957555771</v>
+      </c>
+      <c r="B3">
+        <v>0.04599285125732422</v>
+      </c>
+      <c r="C3">
+        <v>0.1823748499155045</v>
+      </c>
+      <c r="D3">
+        <v>0.2854918837547302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.1682775765657425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>0.04141680896282196</v>
+      </c>
+      <c r="B4">
+        <v>0.03552776947617531</v>
+      </c>
+      <c r="C4">
+        <v>0.3169574737548828</v>
+      </c>
+      <c r="D4">
+        <v>0.3932609856128693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.1516087204217911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>0.03244000300765038</v>
+      </c>
+      <c r="B5">
+        <v>0.02983812056481838</v>
+      </c>
+      <c r="C5">
+        <v>0.5082761645317078</v>
+      </c>
+      <c r="D5">
+        <v>0.632931113243103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.1356890052556992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>0.02852000296115875</v>
+      </c>
+      <c r="B6">
+        <v>0.02823963202536106</v>
+      </c>
+      <c r="C6">
+        <v>0.5728154182434082</v>
+      </c>
+      <c r="D6">
+        <v>0.4745862185955048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.1324745267629623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>0.02759977988898754</v>
+      </c>
+      <c r="B7">
+        <v>0.02745269984006882</v>
+      </c>
+      <c r="C7">
+        <v>0.4234671592712402</v>
+      </c>
+      <c r="D7">
+        <v>0.3411718606948853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.1301594525575638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>0.02671550959348679</v>
+      </c>
+      <c r="B8">
+        <v>0.02662422694265842</v>
+      </c>
+      <c r="C8">
+        <v>0.3461494445800781</v>
+      </c>
+      <c r="D8">
+        <v>0.2866869270801544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.1293901205062866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>0.02614389359951019</v>
+      </c>
+      <c r="B9">
+        <v>0.02574650384485722</v>
+      </c>
+      <c r="C9">
+        <v>0.2978226244449615</v>
+      </c>
+      <c r="D9">
+        <v>0.3336892426013947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.1290574371814728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>0.02568521164357662</v>
+      </c>
+      <c r="B10">
+        <v>0.02455608546733856</v>
+      </c>
+      <c r="C10">
+        <v>0.3042780756950378</v>
+      </c>
+      <c r="D10">
+        <v>0.286342591047287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.1294243931770325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>0.02404923923313618</v>
+      </c>
+      <c r="B11">
+        <v>0.0220929030328989</v>
+      </c>
+      <c r="C11">
+        <v>0.2984237670898438</v>
+      </c>
+      <c r="D11">
+        <v>0.3337673544883728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.1289860457181931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>0.02211322076618671</v>
+      </c>
+      <c r="B12">
+        <v>0.01918503828346729</v>
+      </c>
+      <c r="C12">
+        <v>0.3485583066940308</v>
+      </c>
+      <c r="D12">
+        <v>0.3511602878570557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.1284658759832382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>0.02044998295605183</v>
+      </c>
+      <c r="B13">
+        <v>0.01840688101947308</v>
+      </c>
+      <c r="C13">
+        <v>0.3761892318725586</v>
+      </c>
+      <c r="D13">
+        <v>0.3821238279342651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.1283718049526215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>0.01600384153425694</v>
+      </c>
+      <c r="B14">
+        <v>0.01503545418381691</v>
+      </c>
+      <c r="C14">
+        <v>0.415037602186203</v>
+      </c>
+      <c r="D14">
+        <v>0.3807841539382935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.1269711554050446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>0.01510186120867729</v>
+      </c>
+      <c r="B15">
+        <v>0.0147843211889267</v>
+      </c>
+      <c r="C15">
+        <v>0.4063194394111633</v>
+      </c>
+      <c r="D15">
+        <v>0.4544704854488373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.1273369044065475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>0.01362531539052725</v>
+      </c>
+      <c r="B16">
+        <v>0.01352202147245407</v>
+      </c>
+      <c r="C16">
+        <v>0.4264554381370544</v>
+      </c>
+      <c r="D16">
+        <v>0.3466840386390686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.1269990056753159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>0.01279830560088158</v>
+      </c>
+      <c r="B17">
+        <v>0.01340597122907639</v>
+      </c>
+      <c r="C17">
+        <v>0.3861841857433319</v>
+      </c>
+      <c r="D17">
+        <v>0.4198466539382935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.1256294995546341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>0.01335888728499413</v>
+      </c>
+      <c r="B18">
+        <v>0.01381970476359129</v>
+      </c>
+      <c r="C18">
+        <v>0.3957204818725586</v>
+      </c>
+      <c r="D18">
+        <v>0.3922193348407745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.1245981678366661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>0.01171491295099258</v>
+      </c>
+      <c r="B19">
+        <v>0.01568583212792873</v>
+      </c>
+      <c r="C19">
+        <v>0.3712449371814728</v>
+      </c>
+      <c r="D19">
+        <v>0.4400607645511627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.1228885650634766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>0.01167899277061224</v>
+      </c>
+      <c r="B20">
+        <v>0.01291158050298691</v>
+      </c>
+      <c r="C20">
+        <v>0.3864612281322479</v>
+      </c>
+      <c r="D20">
+        <v>0.364904522895813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.1208601370453835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>0.0112509848549962</v>
+      </c>
+      <c r="B21">
+        <v>0.01247330475598574</v>
+      </c>
+      <c r="C21">
+        <v>0.3690169155597687</v>
+      </c>
+      <c r="D21">
+        <v>0.4110185205936432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.1181369721889496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>0.01088952273130417</v>
+      </c>
+      <c r="B22">
+        <v>0.01218958850950003</v>
+      </c>
+      <c r="C22">
+        <v>0.3676150143146515</v>
+      </c>
+      <c r="D22">
+        <v>0.3562557995319366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.1148723885416985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>0.0114727383479476</v>
+      </c>
+      <c r="B23">
+        <v>0.01163591723889112</v>
+      </c>
+      <c r="C23">
+        <v>0.3630917370319366</v>
+      </c>
+      <c r="D23">
+        <v>0.3266666531562805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.1096376776695251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>0.0105072446167469</v>
+      </c>
+      <c r="B24">
+        <v>0.01205567736178637</v>
+      </c>
+      <c r="C24">
+        <v>0.3391326665878296</v>
+      </c>
+      <c r="D24">
+        <v>0.3900144696235657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.1068124249577522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>0.01061333436518908</v>
+      </c>
+      <c r="B25">
+        <v>0.0122948931530118</v>
+      </c>
+      <c r="C25">
+        <v>0.3503023684024811</v>
+      </c>
+      <c r="D25">
+        <v>0.3833043873310089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.1007960140705109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>0.01071310881525278</v>
+      </c>
+      <c r="B26">
+        <v>0.01226287428289652</v>
+      </c>
+      <c r="C26">
+        <v>0.3467903733253479</v>
+      </c>
+      <c r="D26">
+        <v>0.3102199137210846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.09636443108320236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>0.01034111250191927</v>
+      </c>
+      <c r="B27">
+        <v>0.01171434670686722</v>
+      </c>
+      <c r="C27">
+        <v>0.3314207196235657</v>
+      </c>
+      <c r="D27">
+        <v>0.306655079126358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0936148464679718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>0.0100981742143631</v>
+      </c>
+      <c r="B28">
+        <v>0.01136624440550804</v>
+      </c>
+      <c r="C28">
+        <v>0.3306799829006195</v>
+      </c>
+      <c r="D28">
+        <v>0.3291926980018616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0908043384552002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>0.01008550729602575</v>
+      </c>
+      <c r="B29">
+        <v>0.01094796415418386</v>
+      </c>
+      <c r="C29">
+        <v>0.3342194855213165</v>
+      </c>
+      <c r="D29">
+        <v>0.2781163156032562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.09051147848367691</v>
+        <v>0.01131663750857115</v>
+      </c>
+      <c r="B30">
+        <v>0.01149757672101259</v>
+      </c>
+      <c r="C30">
+        <v>0.3118670284748077</v>
+      </c>
+      <c r="D30">
+        <v>0.339076966047287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>0.01017435640096664</v>
+      </c>
+      <c r="B31">
+        <v>0.01116985082626343</v>
+      </c>
+      <c r="C31">
+        <v>0.3200744986534119</v>
+      </c>
+      <c r="D31">
+        <v>0.2901041805744171</v>
       </c>
     </row>
   </sheetData>
